--- a/pages/Aplicativo/Reportes/Verificador_Epocas_NSCL.xlsx
+++ b/pages/Aplicativo/Reportes/Verificador_Epocas_NSCL.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>45321.83160706695</v>
+        <v>45343.86633481919</v>
       </c>
     </row>
     <row r="9"/>
